--- a/Jogos_do_Dia/2023-12-04_FutPythonTrader_Jogos_do_Dia.xlsx
+++ b/Jogos_do_Dia/2023-12-04_FutPythonTrader_Jogos_do_Dia.xlsx
@@ -1065,10 +1065,10 @@
         <v>1.31</v>
       </c>
       <c r="AP4" t="n">
-        <v>0</v>
+        <v>3.8</v>
       </c>
       <c r="AQ4" t="n">
-        <v>0</v>
+        <v>1.22</v>
       </c>
     </row>
     <row r="5">
@@ -1108,13 +1108,13 @@
         <v>11</v>
       </c>
       <c r="J5" t="n">
-        <v>1.18</v>
+        <v>1.2</v>
       </c>
       <c r="K5" t="n">
-        <v>5.8</v>
+        <v>5.5</v>
       </c>
       <c r="L5" t="n">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="M5" t="n">
         <v>1.3</v>
@@ -1135,10 +1135,10 @@
         <v>4.5</v>
       </c>
       <c r="S5" t="n">
-        <v>1.68</v>
+        <v>1.6</v>
       </c>
       <c r="T5" t="n">
-        <v>2.02</v>
+        <v>2.1</v>
       </c>
       <c r="U5" t="n">
         <v>2.25</v>
@@ -1247,13 +1247,13 @@
         <v>8.5</v>
       </c>
       <c r="J6" t="n">
-        <v>1.2</v>
+        <v>1.26</v>
       </c>
       <c r="K6" t="n">
-        <v>5.9</v>
+        <v>6</v>
       </c>
       <c r="L6" t="n">
-        <v>9.4</v>
+        <v>10.56</v>
       </c>
       <c r="M6" t="n">
         <v>1.22</v>
@@ -1274,10 +1274,10 @@
         <v>6.6</v>
       </c>
       <c r="S6" t="n">
-        <v>1.44</v>
+        <v>1.52</v>
       </c>
       <c r="T6" t="n">
-        <v>2.52</v>
+        <v>2.43</v>
       </c>
       <c r="U6" t="n">
         <v>1.83</v>
@@ -1377,28 +1377,28 @@
         </is>
       </c>
       <c r="G7" t="n">
-        <v>2.8</v>
+        <v>2.75</v>
       </c>
       <c r="H7" t="n">
-        <v>1.9</v>
+        <v>1.91</v>
       </c>
       <c r="I7" t="n">
-        <v>4.2</v>
+        <v>4.5</v>
       </c>
       <c r="J7" t="n">
-        <v>2.15</v>
+        <v>2.19</v>
       </c>
       <c r="K7" t="n">
-        <v>2.87</v>
+        <v>2.95</v>
       </c>
       <c r="L7" t="n">
-        <v>3.25</v>
+        <v>3.38</v>
       </c>
       <c r="M7" t="n">
-        <v>0</v>
+        <v>1.53</v>
       </c>
       <c r="N7" t="n">
-        <v>0</v>
+        <v>2.3</v>
       </c>
       <c r="O7" t="n">
         <v>1.1</v>
@@ -1407,31 +1407,31 @@
         <v>6.75</v>
       </c>
       <c r="Q7" t="n">
-        <v>1.46</v>
+        <v>1.44</v>
       </c>
       <c r="R7" t="n">
-        <v>2.68</v>
+        <v>2.46</v>
       </c>
       <c r="S7" t="n">
-        <v>2.4</v>
+        <v>2.47</v>
       </c>
       <c r="T7" t="n">
-        <v>1.5</v>
+        <v>1.48</v>
       </c>
       <c r="U7" t="n">
-        <v>2.1</v>
+        <v>2.2</v>
       </c>
       <c r="V7" t="n">
-        <v>1.63</v>
+        <v>1.62</v>
       </c>
       <c r="W7" t="n">
-        <v>1.27</v>
+        <v>1.26</v>
       </c>
       <c r="X7" t="n">
-        <v>1.35</v>
+        <v>1.37</v>
       </c>
       <c r="Y7" t="n">
-        <v>1.68</v>
+        <v>1.65</v>
       </c>
       <c r="Z7" t="n">
         <v>1.33</v>
@@ -1458,10 +1458,10 @@
         <v>2.25</v>
       </c>
       <c r="AH7" t="n">
-        <v>0</v>
+        <v>1.24</v>
       </c>
       <c r="AI7" t="n">
-        <v>0</v>
+        <v>3.48</v>
       </c>
       <c r="AJ7" t="n">
         <v>1.53</v>
@@ -1482,16 +1482,16 @@
         <v>1.6</v>
       </c>
       <c r="AP7" t="n">
-        <v>0</v>
+        <v>3.14</v>
       </c>
       <c r="AQ7" t="n">
-        <v>0</v>
+        <v>1.29</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>Denmark Superliga</t>
+          <t>Romania Liga I</t>
         </is>
       </c>
       <c r="B8" s="2" t="n">
@@ -1503,134 +1503,134 @@
         </is>
       </c>
       <c r="D8" t="n">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>Midtjylland</t>
+          <t>Sepsi</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>Viborg</t>
+          <t>Dinamo Bucureşti</t>
         </is>
       </c>
       <c r="G8" t="n">
-        <v>2.1</v>
+        <v>1.99</v>
       </c>
       <c r="H8" t="n">
-        <v>2.38</v>
+        <v>2.29</v>
       </c>
       <c r="I8" t="n">
-        <v>5.5</v>
+        <v>6.5</v>
       </c>
       <c r="J8" t="n">
-        <v>1.68</v>
+        <v>1.44</v>
       </c>
       <c r="K8" t="n">
-        <v>3.4</v>
+        <v>3.9</v>
       </c>
       <c r="L8" t="n">
-        <v>4.55</v>
+        <v>6</v>
       </c>
       <c r="M8" t="n">
-        <v>1.33</v>
+        <v>1.4</v>
       </c>
       <c r="N8" t="n">
-        <v>3.25</v>
+        <v>2.75</v>
       </c>
       <c r="O8" t="n">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="P8" t="n">
-        <v>14.5</v>
+        <v>9</v>
       </c>
       <c r="Q8" t="n">
-        <v>1.22</v>
+        <v>1.29</v>
       </c>
       <c r="R8" t="n">
-        <v>4.3</v>
+        <v>3.5</v>
       </c>
       <c r="S8" t="n">
-        <v>1.67</v>
+        <v>1.85</v>
       </c>
       <c r="T8" t="n">
-        <v>1.95</v>
+        <v>1.85</v>
       </c>
       <c r="U8" t="n">
-        <v>1.75</v>
+        <v>2.04</v>
       </c>
       <c r="V8" t="n">
-        <v>2</v>
+        <v>1.73</v>
       </c>
       <c r="W8" t="n">
-        <v>1.15</v>
+        <v>1.09</v>
       </c>
       <c r="X8" t="n">
-        <v>1.19</v>
+        <v>1.21</v>
       </c>
       <c r="Y8" t="n">
-        <v>2.45</v>
+        <v>2.66</v>
       </c>
       <c r="Z8" t="n">
-        <v>2.13</v>
+        <v>1.63</v>
       </c>
       <c r="AA8" t="n">
         <v>0.5</v>
       </c>
       <c r="AB8" t="n">
-        <v>1.56</v>
+        <v>1.57</v>
       </c>
       <c r="AC8" t="n">
-        <v>1.3</v>
+        <v>1.16</v>
       </c>
       <c r="AD8" t="n">
-        <v>2.86</v>
+        <v>2.73</v>
       </c>
       <c r="AE8" t="n">
-        <v>1.48</v>
+        <v>1.24</v>
       </c>
       <c r="AF8" t="n">
-        <v>9.800000000000001</v>
+        <v>9</v>
       </c>
       <c r="AG8" t="n">
-        <v>3.31</v>
+        <v>5.3</v>
       </c>
       <c r="AH8" t="n">
-        <v>1.38</v>
+        <v>1.34</v>
       </c>
       <c r="AI8" t="n">
-        <v>2.85</v>
+        <v>3.1</v>
       </c>
       <c r="AJ8" t="n">
-        <v>1.68</v>
+        <v>1.63</v>
       </c>
       <c r="AK8" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="AL8" t="n">
         <v>2.08</v>
       </c>
-      <c r="AL8" t="n">
-        <v>2.1</v>
-      </c>
       <c r="AM8" t="n">
-        <v>1.67</v>
+        <v>1.7</v>
       </c>
       <c r="AN8" t="n">
-        <v>2.7</v>
+        <v>2.8</v>
       </c>
       <c r="AO8" t="n">
-        <v>1.42</v>
+        <v>1.4</v>
       </c>
       <c r="AP8" t="n">
-        <v>3.08</v>
+        <v>3.95</v>
       </c>
       <c r="AQ8" t="n">
-        <v>1.3</v>
+        <v>1.23</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>Romania Liga I</t>
+          <t>Portugal LigaPro</t>
         </is>
       </c>
       <c r="B9" s="2" t="n">
@@ -1642,134 +1642,134 @@
         </is>
       </c>
       <c r="D9" t="n">
-        <v>18</v>
+        <v>12</v>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>Sepsi</t>
+          <t>CD Feirense</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>Dinamo Bucureşti</t>
+          <t>CD Mafra</t>
         </is>
       </c>
       <c r="G9" t="n">
-        <v>1.99</v>
+        <v>3.25</v>
       </c>
       <c r="H9" t="n">
-        <v>2.29</v>
+        <v>2.1</v>
       </c>
       <c r="I9" t="n">
-        <v>6.5</v>
+        <v>3.4</v>
       </c>
       <c r="J9" t="n">
-        <v>1.37</v>
+        <v>2.6</v>
       </c>
       <c r="K9" t="n">
-        <v>3.85</v>
+        <v>3.34</v>
       </c>
       <c r="L9" t="n">
-        <v>7.25</v>
+        <v>2.58</v>
       </c>
       <c r="M9" t="n">
-        <v>1.4</v>
+        <v>1.44</v>
       </c>
       <c r="N9" t="n">
-        <v>2.75</v>
+        <v>2.63</v>
       </c>
       <c r="O9" t="n">
-        <v>1.05</v>
+        <v>1.03</v>
       </c>
       <c r="P9" t="n">
-        <v>9</v>
+        <v>8.199999999999999</v>
       </c>
       <c r="Q9" t="n">
-        <v>1.29</v>
+        <v>1.32</v>
       </c>
       <c r="R9" t="n">
-        <v>3.5</v>
+        <v>2.98</v>
       </c>
       <c r="S9" t="n">
-        <v>1.98</v>
+        <v>2.1</v>
       </c>
       <c r="T9" t="n">
-        <v>1.6</v>
+        <v>1.68</v>
       </c>
       <c r="U9" t="n">
-        <v>2.04</v>
+        <v>1.83</v>
       </c>
       <c r="V9" t="n">
-        <v>1.73</v>
+        <v>1.83</v>
       </c>
       <c r="W9" t="n">
-        <v>1.09</v>
+        <v>1.39</v>
       </c>
       <c r="X9" t="n">
-        <v>1.21</v>
+        <v>1.3</v>
       </c>
       <c r="Y9" t="n">
-        <v>2.66</v>
+        <v>1.51</v>
       </c>
       <c r="Z9" t="n">
-        <v>1.63</v>
+        <v>1.8</v>
       </c>
       <c r="AA9" t="n">
-        <v>0.5</v>
+        <v>0.83</v>
       </c>
       <c r="AB9" t="n">
-        <v>1.57</v>
+        <v>1.24</v>
       </c>
       <c r="AC9" t="n">
-        <v>1.16</v>
+        <v>1.19</v>
       </c>
       <c r="AD9" t="n">
-        <v>2.73</v>
+        <v>2.43</v>
       </c>
       <c r="AE9" t="n">
-        <v>1.24</v>
+        <v>1.88</v>
       </c>
       <c r="AF9" t="n">
         <v>9</v>
       </c>
       <c r="AG9" t="n">
-        <v>5.3</v>
+        <v>2.16</v>
       </c>
       <c r="AH9" t="n">
-        <v>1.34</v>
+        <v>1.15</v>
       </c>
       <c r="AI9" t="n">
-        <v>3.1</v>
+        <v>4.4</v>
       </c>
       <c r="AJ9" t="n">
-        <v>1.63</v>
+        <v>1.32</v>
       </c>
       <c r="AK9" t="n">
-        <v>2.2</v>
+        <v>2.98</v>
       </c>
       <c r="AL9" t="n">
-        <v>2.08</v>
+        <v>1.57</v>
       </c>
       <c r="AM9" t="n">
-        <v>1.7</v>
+        <v>2.19</v>
       </c>
       <c r="AN9" t="n">
-        <v>2.8</v>
+        <v>1.96</v>
       </c>
       <c r="AO9" t="n">
-        <v>1.4</v>
+        <v>1.75</v>
       </c>
       <c r="AP9" t="n">
-        <v>3.95</v>
+        <v>2.54</v>
       </c>
       <c r="AQ9" t="n">
-        <v>1.23</v>
+        <v>1.43</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>Portugal LigaPro</t>
+          <t>Denmark Superliga</t>
         </is>
       </c>
       <c r="B10" s="2" t="n">
@@ -1781,128 +1781,128 @@
         </is>
       </c>
       <c r="D10" t="n">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>CD Feirense</t>
+          <t>Midtjylland</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>CD Mafra</t>
+          <t>Viborg</t>
         </is>
       </c>
       <c r="G10" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="H10" t="n">
+        <v>2.38</v>
+      </c>
+      <c r="I10" t="n">
+        <v>5.5</v>
+      </c>
+      <c r="J10" t="n">
+        <v>1.57</v>
+      </c>
+      <c r="K10" t="n">
+        <v>3.9</v>
+      </c>
+      <c r="L10" t="n">
+        <v>5.2</v>
+      </c>
+      <c r="M10" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="N10" t="n">
         <v>3.25</v>
       </c>
-      <c r="H10" t="n">
+      <c r="O10" t="n">
+        <v>1.02</v>
+      </c>
+      <c r="P10" t="n">
+        <v>14.5</v>
+      </c>
+      <c r="Q10" t="n">
+        <v>1.22</v>
+      </c>
+      <c r="R10" t="n">
+        <v>4.3</v>
+      </c>
+      <c r="S10" t="n">
+        <v>1.61</v>
+      </c>
+      <c r="T10" t="n">
         <v>2.1</v>
       </c>
-      <c r="I10" t="n">
-        <v>3.4</v>
-      </c>
-      <c r="J10" t="n">
-        <v>2.55</v>
-      </c>
-      <c r="K10" t="n">
-        <v>3.2</v>
-      </c>
-      <c r="L10" t="n">
+      <c r="U10" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="V10" t="n">
+        <v>2</v>
+      </c>
+      <c r="W10" t="n">
+        <v>1.15</v>
+      </c>
+      <c r="X10" t="n">
+        <v>1.19</v>
+      </c>
+      <c r="Y10" t="n">
         <v>2.45</v>
       </c>
-      <c r="M10" t="n">
-        <v>1.44</v>
-      </c>
-      <c r="N10" t="n">
-        <v>2.63</v>
-      </c>
-      <c r="O10" t="n">
-        <v>1.03</v>
-      </c>
-      <c r="P10" t="n">
-        <v>8.199999999999999</v>
-      </c>
-      <c r="Q10" t="n">
-        <v>1.32</v>
-      </c>
-      <c r="R10" t="n">
-        <v>2.98</v>
-      </c>
-      <c r="S10" t="n">
-        <v>1.95</v>
-      </c>
-      <c r="T10" t="n">
-        <v>1.7</v>
-      </c>
-      <c r="U10" t="n">
-        <v>1.83</v>
-      </c>
-      <c r="V10" t="n">
-        <v>1.83</v>
-      </c>
-      <c r="W10" t="n">
-        <v>1.39</v>
-      </c>
-      <c r="X10" t="n">
+      <c r="Z10" t="n">
+        <v>2.13</v>
+      </c>
+      <c r="AA10" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="AB10" t="n">
+        <v>1.56</v>
+      </c>
+      <c r="AC10" t="n">
         <v>1.3</v>
       </c>
-      <c r="Y10" t="n">
-        <v>1.51</v>
-      </c>
-      <c r="Z10" t="n">
-        <v>1.8</v>
-      </c>
-      <c r="AA10" t="n">
-        <v>0.83</v>
-      </c>
-      <c r="AB10" t="n">
-        <v>1.24</v>
-      </c>
-      <c r="AC10" t="n">
-        <v>1.19</v>
-      </c>
       <c r="AD10" t="n">
-        <v>2.43</v>
+        <v>2.86</v>
       </c>
       <c r="AE10" t="n">
-        <v>1.88</v>
+        <v>1.48</v>
       </c>
       <c r="AF10" t="n">
-        <v>9</v>
+        <v>9.800000000000001</v>
       </c>
       <c r="AG10" t="n">
-        <v>2.16</v>
+        <v>3.31</v>
       </c>
       <c r="AH10" t="n">
-        <v>1.15</v>
+        <v>1.38</v>
       </c>
       <c r="AI10" t="n">
-        <v>4.4</v>
+        <v>2.85</v>
       </c>
       <c r="AJ10" t="n">
-        <v>1.32</v>
+        <v>1.68</v>
       </c>
       <c r="AK10" t="n">
-        <v>2.98</v>
+        <v>2.08</v>
       </c>
       <c r="AL10" t="n">
-        <v>1.57</v>
+        <v>2.1</v>
       </c>
       <c r="AM10" t="n">
-        <v>2.19</v>
+        <v>1.67</v>
       </c>
       <c r="AN10" t="n">
-        <v>1.96</v>
+        <v>2.7</v>
       </c>
       <c r="AO10" t="n">
-        <v>1.75</v>
+        <v>1.42</v>
       </c>
       <c r="AP10" t="n">
-        <v>2.54</v>
+        <v>3.08</v>
       </c>
       <c r="AQ10" t="n">
-        <v>1.43</v>
+        <v>1.3</v>
       </c>
     </row>
     <row r="11">
@@ -2186,7 +2186,7 @@
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>Greece Super League</t>
+          <t>Netherlands Eerste Divisie</t>
         </is>
       </c>
       <c r="B13" s="2" t="n">
@@ -2198,44 +2198,44 @@
         </is>
       </c>
       <c r="D13" t="n">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>AEK Athens</t>
+          <t>Utrecht II</t>
         </is>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>Aris</t>
+          <t>Telstar</t>
         </is>
       </c>
       <c r="G13" t="n">
-        <v>1.91</v>
+        <v>2.8</v>
       </c>
       <c r="H13" t="n">
-        <v>2.4</v>
+        <v>2.25</v>
       </c>
       <c r="I13" t="n">
-        <v>7</v>
+        <v>3.1</v>
       </c>
       <c r="J13" t="n">
-        <v>1.36</v>
+        <v>2.45</v>
       </c>
       <c r="K13" t="n">
-        <v>4.15</v>
+        <v>3.5</v>
       </c>
       <c r="L13" t="n">
-        <v>8.6</v>
+        <v>2.86</v>
       </c>
       <c r="M13" t="n">
-        <v>1.33</v>
+        <v>1.3</v>
       </c>
       <c r="N13" t="n">
-        <v>3.25</v>
+        <v>3.2</v>
       </c>
       <c r="O13" t="n">
-        <v>1.02</v>
+        <v>1.03</v>
       </c>
       <c r="P13" t="n">
         <v>15</v>
@@ -2247,85 +2247,85 @@
         <v>4.2</v>
       </c>
       <c r="S13" t="n">
-        <v>1.66</v>
+        <v>1.68</v>
       </c>
       <c r="T13" t="n">
-        <v>2.06</v>
+        <v>2.1</v>
       </c>
       <c r="U13" t="n">
-        <v>1.95</v>
+        <v>1.57</v>
       </c>
       <c r="V13" t="n">
-        <v>1.8</v>
+        <v>2.35</v>
       </c>
       <c r="W13" t="n">
-        <v>1.08</v>
+        <v>1.4</v>
       </c>
       <c r="X13" t="n">
-        <v>1.15</v>
+        <v>1.29</v>
       </c>
       <c r="Y13" t="n">
-        <v>2.95</v>
+        <v>1.55</v>
       </c>
       <c r="Z13" t="n">
-        <v>2.33</v>
+        <v>2.14</v>
       </c>
       <c r="AA13" t="n">
-        <v>0.8</v>
+        <v>0.5</v>
       </c>
       <c r="AB13" t="n">
-        <v>2.03</v>
+        <v>1.21</v>
       </c>
       <c r="AC13" t="n">
-        <v>1</v>
+        <v>1.36</v>
       </c>
       <c r="AD13" t="n">
-        <v>3.03</v>
+        <v>2.57</v>
       </c>
       <c r="AE13" t="n">
-        <v>1.15</v>
+        <v>0</v>
       </c>
       <c r="AF13" t="n">
-        <v>12</v>
+        <v>0</v>
       </c>
       <c r="AG13" t="n">
-        <v>7.12</v>
+        <v>0</v>
       </c>
       <c r="AH13" t="n">
-        <v>1.45</v>
+        <v>0</v>
       </c>
       <c r="AI13" t="n">
-        <v>2.48</v>
+        <v>0</v>
       </c>
       <c r="AJ13" t="n">
-        <v>1.82</v>
+        <v>0</v>
       </c>
       <c r="AK13" t="n">
-        <v>1.88</v>
+        <v>0</v>
       </c>
       <c r="AL13" t="n">
-        <v>2.34</v>
+        <v>0</v>
       </c>
       <c r="AM13" t="n">
-        <v>1.5</v>
+        <v>0</v>
       </c>
       <c r="AN13" t="n">
-        <v>3.2</v>
+        <v>0</v>
       </c>
       <c r="AO13" t="n">
-        <v>1.28</v>
+        <v>0</v>
       </c>
       <c r="AP13" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="AQ13" t="n">
-        <v>1.2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>Netherlands Eerste Divisie</t>
+          <t>Greece Super League</t>
         </is>
       </c>
       <c r="B14" s="2" t="n">
@@ -2337,44 +2337,44 @@
         </is>
       </c>
       <c r="D14" t="n">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>Utrecht II</t>
+          <t>AEK Athens</t>
         </is>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>Telstar</t>
+          <t>Aris</t>
         </is>
       </c>
       <c r="G14" t="n">
-        <v>2.8</v>
+        <v>1.91</v>
       </c>
       <c r="H14" t="n">
-        <v>2.25</v>
+        <v>2.4</v>
       </c>
       <c r="I14" t="n">
-        <v>3.1</v>
+        <v>7</v>
       </c>
       <c r="J14" t="n">
-        <v>2.45</v>
+        <v>1.36</v>
       </c>
       <c r="K14" t="n">
-        <v>3.5</v>
+        <v>4.2</v>
       </c>
       <c r="L14" t="n">
-        <v>2.86</v>
+        <v>7</v>
       </c>
       <c r="M14" t="n">
-        <v>1.3</v>
+        <v>1.33</v>
       </c>
       <c r="N14" t="n">
-        <v>3.2</v>
+        <v>3.25</v>
       </c>
       <c r="O14" t="n">
-        <v>1.03</v>
+        <v>1.02</v>
       </c>
       <c r="P14" t="n">
         <v>15</v>
@@ -2386,79 +2386,79 @@
         <v>4.2</v>
       </c>
       <c r="S14" t="n">
-        <v>1.68</v>
+        <v>1.67</v>
       </c>
       <c r="T14" t="n">
-        <v>2.1</v>
+        <v>2</v>
       </c>
       <c r="U14" t="n">
-        <v>1.57</v>
+        <v>1.95</v>
       </c>
       <c r="V14" t="n">
-        <v>2.35</v>
+        <v>1.8</v>
       </c>
       <c r="W14" t="n">
-        <v>1.4</v>
+        <v>1.08</v>
       </c>
       <c r="X14" t="n">
-        <v>1.29</v>
+        <v>1.15</v>
       </c>
       <c r="Y14" t="n">
-        <v>1.55</v>
+        <v>2.95</v>
       </c>
       <c r="Z14" t="n">
-        <v>2.14</v>
+        <v>2.33</v>
       </c>
       <c r="AA14" t="n">
-        <v>0.5</v>
+        <v>0.8</v>
       </c>
       <c r="AB14" t="n">
-        <v>1.21</v>
+        <v>2.03</v>
       </c>
       <c r="AC14" t="n">
-        <v>1.36</v>
+        <v>1</v>
       </c>
       <c r="AD14" t="n">
-        <v>2.57</v>
+        <v>3.03</v>
       </c>
       <c r="AE14" t="n">
-        <v>0</v>
+        <v>1.15</v>
       </c>
       <c r="AF14" t="n">
-        <v>0</v>
+        <v>12</v>
       </c>
       <c r="AG14" t="n">
-        <v>0</v>
+        <v>7.12</v>
       </c>
       <c r="AH14" t="n">
-        <v>0</v>
+        <v>1.45</v>
       </c>
       <c r="AI14" t="n">
-        <v>0</v>
+        <v>2.48</v>
       </c>
       <c r="AJ14" t="n">
-        <v>0</v>
+        <v>1.82</v>
       </c>
       <c r="AK14" t="n">
-        <v>0</v>
+        <v>1.88</v>
       </c>
       <c r="AL14" t="n">
-        <v>0</v>
+        <v>2.34</v>
       </c>
       <c r="AM14" t="n">
-        <v>0</v>
+        <v>1.5</v>
       </c>
       <c r="AN14" t="n">
-        <v>0</v>
+        <v>3.2</v>
       </c>
       <c r="AO14" t="n">
-        <v>0</v>
+        <v>1.28</v>
       </c>
       <c r="AP14" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="AQ14" t="n">
-        <v>0</v>
+        <v>1.2</v>
       </c>
     </row>
     <row r="15">
@@ -2498,13 +2498,13 @@
         <v>2.68</v>
       </c>
       <c r="J15" t="n">
-        <v>3.2</v>
+        <v>3.6</v>
       </c>
       <c r="K15" t="n">
-        <v>3.25</v>
+        <v>3.3</v>
       </c>
       <c r="L15" t="n">
-        <v>2.01</v>
+        <v>1.95</v>
       </c>
       <c r="M15" t="n">
         <v>1.4</v>
@@ -2525,10 +2525,10 @@
         <v>3.3</v>
       </c>
       <c r="S15" t="n">
-        <v>1.89</v>
+        <v>1.85</v>
       </c>
       <c r="T15" t="n">
-        <v>1.81</v>
+        <v>1.8</v>
       </c>
       <c r="U15" t="n">
         <v>1.75</v>
@@ -2637,13 +2637,13 @@
         <v>3.2</v>
       </c>
       <c r="J16" t="n">
-        <v>2.82</v>
+        <v>3.1</v>
       </c>
       <c r="K16" t="n">
-        <v>3.11</v>
+        <v>3.2</v>
       </c>
       <c r="L16" t="n">
-        <v>2.33</v>
+        <v>2.37</v>
       </c>
       <c r="M16" t="n">
         <v>1.5</v>
@@ -2664,10 +2664,10 @@
         <v>3</v>
       </c>
       <c r="S16" t="n">
-        <v>2.02</v>
+        <v>2.15</v>
       </c>
       <c r="T16" t="n">
-        <v>1.68</v>
+        <v>1.67</v>
       </c>
       <c r="U16" t="n">
         <v>1.95</v>
@@ -2776,13 +2776,13 @@
         <v>6</v>
       </c>
       <c r="J17" t="n">
-        <v>1.58</v>
+        <v>1.7</v>
       </c>
       <c r="K17" t="n">
-        <v>3.77</v>
+        <v>3.6</v>
       </c>
       <c r="L17" t="n">
-        <v>4.8</v>
+        <v>5</v>
       </c>
       <c r="M17" t="n">
         <v>1.4</v>
@@ -2806,7 +2806,7 @@
         <v>1.95</v>
       </c>
       <c r="T17" t="n">
-        <v>1.85</v>
+        <v>1.8</v>
       </c>
       <c r="U17" t="n">
         <v>2</v>
@@ -3054,13 +3054,13 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>1.14</v>
+        <v>1.16</v>
       </c>
       <c r="K19" t="n">
-        <v>6.7</v>
+        <v>7.9</v>
       </c>
       <c r="L19" t="n">
-        <v>12</v>
+        <v>11.58</v>
       </c>
       <c r="M19" t="n">
         <v>0</v>
@@ -3081,10 +3081,10 @@
         <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>1.39</v>
+        <v>1.38</v>
       </c>
       <c r="T19" t="n">
-        <v>2.69</v>
+        <v>2.81</v>
       </c>
       <c r="U19" t="n">
         <v>0</v>
@@ -3220,10 +3220,10 @@
         <v>3.1</v>
       </c>
       <c r="S20" t="n">
-        <v>2.08</v>
+        <v>1.91</v>
       </c>
       <c r="T20" t="n">
-        <v>1.67</v>
+        <v>1.8</v>
       </c>
       <c r="U20" t="n">
         <v>1.79</v>

--- a/Jogos_do_Dia/2023-12-04_FutPythonTrader_Jogos_do_Dia.xlsx
+++ b/Jogos_do_Dia/2023-12-04_FutPythonTrader_Jogos_do_Dia.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AQ20"/>
+  <dimension ref="A1:AQ21"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -673,12 +673,12 @@
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>Zamalek</t>
+          <t>Al Ahly</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>Pharco</t>
+          <t>El Daklyeh FC</t>
         </is>
       </c>
       <c r="G2" t="n">
@@ -739,19 +739,19 @@
         <v>0</v>
       </c>
       <c r="Z2" t="n">
-        <v>1.33</v>
+        <v>2.33</v>
       </c>
       <c r="AA2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AB2" t="n">
-        <v>1.62</v>
+        <v>1.73</v>
       </c>
       <c r="AC2" t="n">
-        <v>1.56</v>
+        <v>1.14</v>
       </c>
       <c r="AD2" t="n">
-        <v>3.18</v>
+        <v>2.87</v>
       </c>
       <c r="AE2" t="n">
         <v>0</v>
@@ -812,12 +812,12 @@
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>Al Ahly</t>
+          <t>Zamalek</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>El Daklyeh FC</t>
+          <t>Pharco</t>
         </is>
       </c>
       <c r="G3" t="n">
@@ -878,19 +878,19 @@
         <v>0</v>
       </c>
       <c r="Z3" t="n">
-        <v>2.33</v>
+        <v>1.33</v>
       </c>
       <c r="AA3" t="n">
-        <v>0</v>
+        <v>0.75</v>
       </c>
       <c r="AB3" t="n">
-        <v>1.73</v>
+        <v>1.62</v>
       </c>
       <c r="AC3" t="n">
-        <v>1.14</v>
+        <v>1.56</v>
       </c>
       <c r="AD3" t="n">
-        <v>2.87</v>
+        <v>3.18</v>
       </c>
       <c r="AE3" t="n">
         <v>0</v>
@@ -1017,10 +1017,10 @@
         <v>1.03</v>
       </c>
       <c r="Z4" t="n">
-        <v>1.38</v>
+        <v>1.22</v>
       </c>
       <c r="AA4" t="n">
-        <v>1.57</v>
+        <v>1.75</v>
       </c>
       <c r="AB4" t="n">
         <v>1.43</v>
@@ -1111,7 +1111,7 @@
         <v>1.2</v>
       </c>
       <c r="K5" t="n">
-        <v>5.5</v>
+        <v>6</v>
       </c>
       <c r="L5" t="n">
         <v>15</v>
@@ -1135,10 +1135,10 @@
         <v>4.5</v>
       </c>
       <c r="S5" t="n">
-        <v>1.6</v>
+        <v>1.57</v>
       </c>
       <c r="T5" t="n">
-        <v>2.1</v>
+        <v>2.3</v>
       </c>
       <c r="U5" t="n">
         <v>2.25</v>
@@ -1156,10 +1156,10 @@
         <v>4.33</v>
       </c>
       <c r="Z5" t="n">
-        <v>2.71</v>
+        <v>2.75</v>
       </c>
       <c r="AA5" t="n">
-        <v>0.83</v>
+        <v>0.71</v>
       </c>
       <c r="AB5" t="n">
         <v>1.81</v>
@@ -1213,7 +1213,7 @@
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>Turkey Süper Lig</t>
+          <t>Egypt Egyptian Premier League</t>
         </is>
       </c>
       <c r="B6" s="2" t="n">
@@ -1225,134 +1225,134 @@
         </is>
       </c>
       <c r="D6" t="n">
-        <v>14</v>
+        <v>8</v>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>Fenerbahçe</t>
+          <t>Smouha SC</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>Sivasspor</t>
+          <t>Pharco</t>
         </is>
       </c>
       <c r="G6" t="n">
-        <v>1.62</v>
+        <v>3.1</v>
       </c>
       <c r="H6" t="n">
-        <v>2.88</v>
+        <v>1.91</v>
       </c>
       <c r="I6" t="n">
-        <v>8.5</v>
+        <v>3.75</v>
       </c>
       <c r="J6" t="n">
+        <v>2.22</v>
+      </c>
+      <c r="K6" t="n">
+        <v>2.95</v>
+      </c>
+      <c r="L6" t="n">
+        <v>3.35</v>
+      </c>
+      <c r="M6" t="n">
+        <v>1.53</v>
+      </c>
+      <c r="N6" t="n">
+        <v>2.3</v>
+      </c>
+      <c r="O6" t="n">
+        <v>1.1</v>
+      </c>
+      <c r="P6" t="n">
+        <v>6.75</v>
+      </c>
+      <c r="Q6" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="R6" t="n">
+        <v>2.46</v>
+      </c>
+      <c r="S6" t="n">
+        <v>2.45</v>
+      </c>
+      <c r="T6" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="U6" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="V6" t="n">
+        <v>1.67</v>
+      </c>
+      <c r="W6" t="n">
         <v>1.26</v>
       </c>
-      <c r="K6" t="n">
-        <v>6</v>
-      </c>
-      <c r="L6" t="n">
-        <v>10.56</v>
-      </c>
-      <c r="M6" t="n">
-        <v>1.22</v>
-      </c>
-      <c r="N6" t="n">
-        <v>4</v>
-      </c>
-      <c r="O6" t="n">
-        <v>1.01</v>
-      </c>
-      <c r="P6" t="n">
-        <v>26</v>
-      </c>
-      <c r="Q6" t="n">
-        <v>1.1</v>
-      </c>
-      <c r="R6" t="n">
-        <v>6.6</v>
-      </c>
-      <c r="S6" t="n">
-        <v>1.52</v>
-      </c>
-      <c r="T6" t="n">
-        <v>2.43</v>
-      </c>
-      <c r="U6" t="n">
+      <c r="X6" t="n">
+        <v>1.37</v>
+      </c>
+      <c r="Y6" t="n">
+        <v>1.65</v>
+      </c>
+      <c r="Z6" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="AA6" t="n">
+        <v>0.75</v>
+      </c>
+      <c r="AB6" t="n">
+        <v>1.99</v>
+      </c>
+      <c r="AC6" t="n">
+        <v>1.56</v>
+      </c>
+      <c r="AD6" t="n">
+        <v>3.55</v>
+      </c>
+      <c r="AE6" t="n">
         <v>1.83</v>
       </c>
-      <c r="V6" t="n">
-        <v>1.83</v>
-      </c>
-      <c r="W6" t="n">
-        <v>1.06</v>
-      </c>
-      <c r="X6" t="n">
-        <v>1.14</v>
-      </c>
-      <c r="Y6" t="n">
-        <v>4.33</v>
-      </c>
-      <c r="Z6" t="n">
-        <v>2.57</v>
-      </c>
-      <c r="AA6" t="n">
-        <v>1.67</v>
-      </c>
-      <c r="AB6" t="n">
-        <v>1.87</v>
-      </c>
-      <c r="AC6" t="n">
-        <v>1.34</v>
-      </c>
-      <c r="AD6" t="n">
-        <v>3.21</v>
-      </c>
-      <c r="AE6" t="n">
-        <v>1.09</v>
-      </c>
       <c r="AF6" t="n">
-        <v>13</v>
+        <v>8.699999999999999</v>
       </c>
       <c r="AG6" t="n">
-        <v>8</v>
+        <v>2.25</v>
       </c>
       <c r="AH6" t="n">
-        <v>1.26</v>
+        <v>1.24</v>
       </c>
       <c r="AI6" t="n">
-        <v>3.34</v>
+        <v>3.48</v>
       </c>
       <c r="AJ6" t="n">
-        <v>1.5</v>
+        <v>1.53</v>
       </c>
       <c r="AK6" t="n">
-        <v>2.41</v>
+        <v>2.48</v>
       </c>
       <c r="AL6" t="n">
-        <v>1.87</v>
+        <v>1.86</v>
       </c>
       <c r="AM6" t="n">
-        <v>1.87</v>
+        <v>1.94</v>
       </c>
       <c r="AN6" t="n">
-        <v>2.39</v>
+        <v>2.32</v>
       </c>
       <c r="AO6" t="n">
-        <v>1.51</v>
+        <v>1.6</v>
       </c>
       <c r="AP6" t="n">
-        <v>3.2</v>
+        <v>3.14</v>
       </c>
       <c r="AQ6" t="n">
-        <v>1.28</v>
+        <v>1.29</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>Egypt Egyptian Premier League</t>
+          <t>Turkey Süper Lig</t>
         </is>
       </c>
       <c r="B7" s="2" t="n">
@@ -1364,134 +1364,134 @@
         </is>
       </c>
       <c r="D7" t="n">
+        <v>14</v>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>Fenerbahçe</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>Sivasspor</t>
+        </is>
+      </c>
+      <c r="G7" t="n">
+        <v>1.62</v>
+      </c>
+      <c r="H7" t="n">
+        <v>2.88</v>
+      </c>
+      <c r="I7" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="J7" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="K7" t="n">
+        <v>5.25</v>
+      </c>
+      <c r="L7" t="n">
+        <v>9.5</v>
+      </c>
+      <c r="M7" t="n">
+        <v>1.22</v>
+      </c>
+      <c r="N7" t="n">
+        <v>4</v>
+      </c>
+      <c r="O7" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="P7" t="n">
+        <v>26</v>
+      </c>
+      <c r="Q7" t="n">
+        <v>1.1</v>
+      </c>
+      <c r="R7" t="n">
+        <v>6.6</v>
+      </c>
+      <c r="S7" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="T7" t="n">
+        <v>2.48</v>
+      </c>
+      <c r="U7" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="V7" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="W7" t="n">
+        <v>1.06</v>
+      </c>
+      <c r="X7" t="n">
+        <v>1.14</v>
+      </c>
+      <c r="Y7" t="n">
+        <v>4.33</v>
+      </c>
+      <c r="Z7" t="n">
+        <v>2.63</v>
+      </c>
+      <c r="AA7" t="n">
+        <v>1.43</v>
+      </c>
+      <c r="AB7" t="n">
+        <v>1.87</v>
+      </c>
+      <c r="AC7" t="n">
+        <v>1.34</v>
+      </c>
+      <c r="AD7" t="n">
+        <v>3.21</v>
+      </c>
+      <c r="AE7" t="n">
+        <v>1.09</v>
+      </c>
+      <c r="AF7" t="n">
+        <v>13</v>
+      </c>
+      <c r="AG7" t="n">
         <v>8</v>
       </c>
-      <c r="E7" t="inlineStr">
-        <is>
-          <t>Smouha SC</t>
-        </is>
-      </c>
-      <c r="F7" t="inlineStr">
-        <is>
-          <t>Pharco</t>
-        </is>
-      </c>
-      <c r="G7" t="n">
-        <v>2.75</v>
-      </c>
-      <c r="H7" t="n">
-        <v>1.91</v>
-      </c>
-      <c r="I7" t="n">
-        <v>4.5</v>
-      </c>
-      <c r="J7" t="n">
-        <v>2.19</v>
-      </c>
-      <c r="K7" t="n">
-        <v>2.95</v>
-      </c>
-      <c r="L7" t="n">
-        <v>3.38</v>
-      </c>
-      <c r="M7" t="n">
-        <v>1.53</v>
-      </c>
-      <c r="N7" t="n">
-        <v>2.3</v>
-      </c>
-      <c r="O7" t="n">
-        <v>1.1</v>
-      </c>
-      <c r="P7" t="n">
-        <v>6.75</v>
-      </c>
-      <c r="Q7" t="n">
-        <v>1.44</v>
-      </c>
-      <c r="R7" t="n">
-        <v>2.46</v>
-      </c>
-      <c r="S7" t="n">
-        <v>2.47</v>
-      </c>
-      <c r="T7" t="n">
-        <v>1.48</v>
-      </c>
-      <c r="U7" t="n">
-        <v>2.2</v>
-      </c>
-      <c r="V7" t="n">
-        <v>1.62</v>
-      </c>
-      <c r="W7" t="n">
+      <c r="AH7" t="n">
         <v>1.26</v>
       </c>
-      <c r="X7" t="n">
-        <v>1.37</v>
-      </c>
-      <c r="Y7" t="n">
-        <v>1.65</v>
-      </c>
-      <c r="Z7" t="n">
-        <v>1.33</v>
-      </c>
-      <c r="AA7" t="n">
-        <v>1</v>
-      </c>
-      <c r="AB7" t="n">
-        <v>1.99</v>
-      </c>
-      <c r="AC7" t="n">
-        <v>1.56</v>
-      </c>
-      <c r="AD7" t="n">
-        <v>3.55</v>
-      </c>
-      <c r="AE7" t="n">
-        <v>1.83</v>
-      </c>
-      <c r="AF7" t="n">
-        <v>8.699999999999999</v>
-      </c>
-      <c r="AG7" t="n">
-        <v>2.25</v>
-      </c>
-      <c r="AH7" t="n">
-        <v>1.24</v>
-      </c>
       <c r="AI7" t="n">
-        <v>3.48</v>
+        <v>3.34</v>
       </c>
       <c r="AJ7" t="n">
-        <v>1.53</v>
+        <v>1.5</v>
       </c>
       <c r="AK7" t="n">
-        <v>2.48</v>
+        <v>2.41</v>
       </c>
       <c r="AL7" t="n">
-        <v>1.86</v>
+        <v>1.87</v>
       </c>
       <c r="AM7" t="n">
-        <v>1.94</v>
+        <v>1.87</v>
       </c>
       <c r="AN7" t="n">
-        <v>2.32</v>
+        <v>2.39</v>
       </c>
       <c r="AO7" t="n">
-        <v>1.6</v>
+        <v>1.51</v>
       </c>
       <c r="AP7" t="n">
-        <v>3.14</v>
+        <v>3.2</v>
       </c>
       <c r="AQ7" t="n">
-        <v>1.29</v>
+        <v>1.28</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>Romania Liga I</t>
+          <t>Portugal LigaPro</t>
         </is>
       </c>
       <c r="B8" s="2" t="n">
@@ -1503,134 +1503,134 @@
         </is>
       </c>
       <c r="D8" t="n">
-        <v>18</v>
+        <v>12</v>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>Sepsi</t>
+          <t>CD Feirense</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>Dinamo Bucureşti</t>
+          <t>CD Mafra</t>
         </is>
       </c>
       <c r="G8" t="n">
-        <v>1.99</v>
+        <v>3.25</v>
       </c>
       <c r="H8" t="n">
-        <v>2.29</v>
+        <v>2.1</v>
       </c>
       <c r="I8" t="n">
-        <v>6.5</v>
+        <v>3.4</v>
       </c>
       <c r="J8" t="n">
+        <v>2.55</v>
+      </c>
+      <c r="K8" t="n">
+        <v>3.13</v>
+      </c>
+      <c r="L8" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="M8" t="n">
         <v>1.44</v>
       </c>
-      <c r="K8" t="n">
-        <v>3.9</v>
-      </c>
-      <c r="L8" t="n">
-        <v>6</v>
-      </c>
-      <c r="M8" t="n">
-        <v>1.4</v>
-      </c>
       <c r="N8" t="n">
-        <v>2.75</v>
+        <v>2.63</v>
       </c>
       <c r="O8" t="n">
-        <v>1.05</v>
+        <v>1.03</v>
       </c>
       <c r="P8" t="n">
-        <v>9</v>
+        <v>8.199999999999999</v>
       </c>
       <c r="Q8" t="n">
-        <v>1.29</v>
+        <v>1.32</v>
       </c>
       <c r="R8" t="n">
-        <v>3.5</v>
+        <v>2.98</v>
       </c>
       <c r="S8" t="n">
-        <v>1.85</v>
+        <v>2.1</v>
       </c>
       <c r="T8" t="n">
-        <v>1.85</v>
+        <v>1.67</v>
       </c>
       <c r="U8" t="n">
-        <v>2.04</v>
+        <v>1.83</v>
       </c>
       <c r="V8" t="n">
-        <v>1.73</v>
+        <v>1.83</v>
       </c>
       <c r="W8" t="n">
-        <v>1.09</v>
+        <v>1.39</v>
       </c>
       <c r="X8" t="n">
-        <v>1.21</v>
+        <v>1.3</v>
       </c>
       <c r="Y8" t="n">
-        <v>2.66</v>
+        <v>1.51</v>
       </c>
       <c r="Z8" t="n">
-        <v>1.63</v>
+        <v>1.8</v>
       </c>
       <c r="AA8" t="n">
-        <v>0.5</v>
+        <v>0.83</v>
       </c>
       <c r="AB8" t="n">
-        <v>1.57</v>
+        <v>1.24</v>
       </c>
       <c r="AC8" t="n">
-        <v>1.16</v>
+        <v>1.19</v>
       </c>
       <c r="AD8" t="n">
-        <v>2.73</v>
+        <v>2.43</v>
       </c>
       <c r="AE8" t="n">
-        <v>1.24</v>
+        <v>1.88</v>
       </c>
       <c r="AF8" t="n">
         <v>9</v>
       </c>
       <c r="AG8" t="n">
-        <v>5.3</v>
+        <v>2.16</v>
       </c>
       <c r="AH8" t="n">
-        <v>1.34</v>
+        <v>1.15</v>
       </c>
       <c r="AI8" t="n">
-        <v>3.1</v>
+        <v>4.4</v>
       </c>
       <c r="AJ8" t="n">
-        <v>1.63</v>
+        <v>1.32</v>
       </c>
       <c r="AK8" t="n">
-        <v>2.2</v>
+        <v>2.98</v>
       </c>
       <c r="AL8" t="n">
-        <v>2.08</v>
+        <v>1.57</v>
       </c>
       <c r="AM8" t="n">
-        <v>1.7</v>
+        <v>2.19</v>
       </c>
       <c r="AN8" t="n">
-        <v>2.8</v>
+        <v>1.96</v>
       </c>
       <c r="AO8" t="n">
-        <v>1.4</v>
+        <v>1.75</v>
       </c>
       <c r="AP8" t="n">
-        <v>3.95</v>
+        <v>2.54</v>
       </c>
       <c r="AQ8" t="n">
-        <v>1.23</v>
+        <v>1.43</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>Portugal LigaPro</t>
+          <t>Austria Bundesliga</t>
         </is>
       </c>
       <c r="B9" s="2" t="n">
@@ -1642,128 +1642,128 @@
         </is>
       </c>
       <c r="D9" t="n">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>CD Feirense</t>
+          <t>Austria Klagenfurt</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>CD Mafra</t>
+          <t>Hartberg</t>
         </is>
       </c>
       <c r="G9" t="n">
-        <v>3.25</v>
+        <v>3.4</v>
       </c>
       <c r="H9" t="n">
-        <v>2.1</v>
+        <v>2.2</v>
       </c>
       <c r="I9" t="n">
-        <v>3.4</v>
+        <v>3</v>
       </c>
       <c r="J9" t="n">
-        <v>2.6</v>
+        <v>3.1</v>
       </c>
       <c r="K9" t="n">
-        <v>3.34</v>
+        <v>3.3</v>
       </c>
       <c r="L9" t="n">
-        <v>2.58</v>
+        <v>2.25</v>
       </c>
       <c r="M9" t="n">
-        <v>1.44</v>
+        <v>1.36</v>
       </c>
       <c r="N9" t="n">
-        <v>2.63</v>
+        <v>3</v>
       </c>
       <c r="O9" t="n">
         <v>1.03</v>
       </c>
       <c r="P9" t="n">
-        <v>8.199999999999999</v>
+        <v>13</v>
       </c>
       <c r="Q9" t="n">
-        <v>1.32</v>
+        <v>1.25</v>
       </c>
       <c r="R9" t="n">
-        <v>2.98</v>
+        <v>3.75</v>
       </c>
       <c r="S9" t="n">
+        <v>1.9</v>
+      </c>
+      <c r="T9" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="U9" t="n">
+        <v>1.67</v>
+      </c>
+      <c r="V9" t="n">
         <v>2.1</v>
       </c>
-      <c r="T9" t="n">
-        <v>1.68</v>
-      </c>
-      <c r="U9" t="n">
-        <v>1.83</v>
-      </c>
-      <c r="V9" t="n">
-        <v>1.83</v>
-      </c>
       <c r="W9" t="n">
-        <v>1.39</v>
+        <v>1.6</v>
       </c>
       <c r="X9" t="n">
-        <v>1.3</v>
+        <v>1.25</v>
       </c>
       <c r="Y9" t="n">
-        <v>1.51</v>
+        <v>1.45</v>
       </c>
       <c r="Z9" t="n">
-        <v>1.8</v>
+        <v>1.25</v>
       </c>
       <c r="AA9" t="n">
-        <v>0.83</v>
+        <v>1.5</v>
       </c>
       <c r="AB9" t="n">
+        <v>1.21</v>
+      </c>
+      <c r="AC9" t="n">
+        <v>1.37</v>
+      </c>
+      <c r="AD9" t="n">
+        <v>2.58</v>
+      </c>
+      <c r="AE9" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="AF9" t="n">
+        <v>8</v>
+      </c>
+      <c r="AG9" t="n">
+        <v>2</v>
+      </c>
+      <c r="AH9" t="n">
         <v>1.24</v>
       </c>
-      <c r="AC9" t="n">
-        <v>1.19</v>
-      </c>
-      <c r="AD9" t="n">
-        <v>2.43</v>
-      </c>
-      <c r="AE9" t="n">
+      <c r="AI9" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="AJ9" t="n">
+        <v>1.46</v>
+      </c>
+      <c r="AK9" t="n">
+        <v>2.4</v>
+      </c>
+      <c r="AL9" t="n">
+        <v>1.93</v>
+      </c>
+      <c r="AM9" t="n">
         <v>1.88</v>
       </c>
-      <c r="AF9" t="n">
-        <v>9</v>
-      </c>
-      <c r="AG9" t="n">
-        <v>2.16</v>
-      </c>
-      <c r="AH9" t="n">
-        <v>1.15</v>
-      </c>
-      <c r="AI9" t="n">
-        <v>4.4</v>
-      </c>
-      <c r="AJ9" t="n">
-        <v>1.32</v>
-      </c>
-      <c r="AK9" t="n">
-        <v>2.98</v>
-      </c>
-      <c r="AL9" t="n">
-        <v>1.57</v>
-      </c>
-      <c r="AM9" t="n">
-        <v>2.19</v>
-      </c>
       <c r="AN9" t="n">
-        <v>1.96</v>
+        <v>2.4</v>
       </c>
       <c r="AO9" t="n">
-        <v>1.75</v>
+        <v>1.47</v>
       </c>
       <c r="AP9" t="n">
-        <v>2.54</v>
+        <v>3.3</v>
       </c>
       <c r="AQ9" t="n">
-        <v>1.43</v>
+        <v>1.26</v>
       </c>
     </row>
     <row r="10">
@@ -1803,13 +1803,13 @@
         <v>5.5</v>
       </c>
       <c r="J10" t="n">
-        <v>1.57</v>
+        <v>1.5</v>
       </c>
       <c r="K10" t="n">
-        <v>3.9</v>
+        <v>4.33</v>
       </c>
       <c r="L10" t="n">
-        <v>5.2</v>
+        <v>6</v>
       </c>
       <c r="M10" t="n">
         <v>1.33</v>
@@ -1830,10 +1830,10 @@
         <v>4.3</v>
       </c>
       <c r="S10" t="n">
-        <v>1.61</v>
+        <v>1.65</v>
       </c>
       <c r="T10" t="n">
-        <v>2.1</v>
+        <v>2.15</v>
       </c>
       <c r="U10" t="n">
         <v>1.75</v>
@@ -1908,7 +1908,7 @@
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>Netherlands Eerste Divisie</t>
+          <t>Romania Liga I</t>
         </is>
       </c>
       <c r="B11" s="2" t="n">
@@ -1916,132 +1916,132 @@
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>16:00:00</t>
+          <t>15:00:00</t>
         </is>
       </c>
       <c r="D11" t="n">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>PSV II</t>
+          <t>Sepsi</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>NAC Breda</t>
+          <t>Dinamo Bucureşti</t>
         </is>
       </c>
       <c r="G11" t="n">
-        <v>4</v>
+        <v>1.99</v>
       </c>
       <c r="H11" t="n">
-        <v>2.4</v>
+        <v>2.29</v>
       </c>
       <c r="I11" t="n">
-        <v>2.38</v>
+        <v>6.5</v>
       </c>
       <c r="J11" t="n">
-        <v>4.13</v>
+        <v>1.55</v>
       </c>
       <c r="K11" t="n">
-        <v>4.05</v>
+        <v>3.8</v>
       </c>
       <c r="L11" t="n">
-        <v>1.79</v>
+        <v>6</v>
       </c>
       <c r="M11" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="N11" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="O11" t="n">
+        <v>1.05</v>
+      </c>
+      <c r="P11" t="n">
+        <v>9</v>
+      </c>
+      <c r="Q11" t="n">
         <v>1.29</v>
       </c>
-      <c r="N11" t="n">
+      <c r="R11" t="n">
         <v>3.5</v>
       </c>
-      <c r="O11" t="n">
-        <v>0</v>
-      </c>
-      <c r="P11" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q11" t="n">
-        <v>0</v>
-      </c>
-      <c r="R11" t="n">
-        <v>0</v>
-      </c>
       <c r="S11" t="n">
-        <v>1.5</v>
+        <v>1.95</v>
       </c>
       <c r="T11" t="n">
-        <v>2.31</v>
+        <v>1.78</v>
       </c>
       <c r="U11" t="n">
-        <v>1.53</v>
+        <v>2.04</v>
       </c>
       <c r="V11" t="n">
-        <v>2.38</v>
+        <v>1.73</v>
       </c>
       <c r="W11" t="n">
-        <v>0</v>
+        <v>1.09</v>
       </c>
       <c r="X11" t="n">
-        <v>0</v>
+        <v>1.21</v>
       </c>
       <c r="Y11" t="n">
-        <v>0</v>
+        <v>2.66</v>
       </c>
       <c r="Z11" t="n">
-        <v>0.88</v>
+        <v>1.78</v>
       </c>
       <c r="AA11" t="n">
-        <v>1.38</v>
+        <v>0.44</v>
       </c>
       <c r="AB11" t="n">
-        <v>1.35</v>
+        <v>1.57</v>
       </c>
       <c r="AC11" t="n">
-        <v>1.42</v>
+        <v>1.16</v>
       </c>
       <c r="AD11" t="n">
-        <v>2.77</v>
+        <v>2.73</v>
       </c>
       <c r="AE11" t="n">
-        <v>0</v>
+        <v>1.24</v>
       </c>
       <c r="AF11" t="n">
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="AG11" t="n">
-        <v>0</v>
+        <v>5.3</v>
       </c>
       <c r="AH11" t="n">
-        <v>0</v>
+        <v>1.34</v>
       </c>
       <c r="AI11" t="n">
-        <v>0</v>
+        <v>3.1</v>
       </c>
       <c r="AJ11" t="n">
-        <v>0</v>
+        <v>1.63</v>
       </c>
       <c r="AK11" t="n">
-        <v>0</v>
+        <v>2.2</v>
       </c>
       <c r="AL11" t="n">
-        <v>0</v>
+        <v>2.08</v>
       </c>
       <c r="AM11" t="n">
-        <v>0</v>
+        <v>1.7</v>
       </c>
       <c r="AN11" t="n">
-        <v>0</v>
+        <v>2.8</v>
       </c>
       <c r="AO11" t="n">
-        <v>0</v>
+        <v>1.4</v>
       </c>
       <c r="AP11" t="n">
-        <v>0</v>
+        <v>3.95</v>
       </c>
       <c r="AQ11" t="n">
-        <v>0</v>
+        <v>1.23</v>
       </c>
     </row>
     <row r="12">
@@ -2059,128 +2059,128 @@
         </is>
       </c>
       <c r="D12" t="n">
+        <v>17</v>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>Utrecht II</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>Telstar</t>
+        </is>
+      </c>
+      <c r="G12" t="n">
+        <v>2.8</v>
+      </c>
+      <c r="H12" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="I12" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="J12" t="n">
+        <v>2.45</v>
+      </c>
+      <c r="K12" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="L12" t="n">
+        <v>2.86</v>
+      </c>
+      <c r="M12" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="N12" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="O12" t="n">
+        <v>1.03</v>
+      </c>
+      <c r="P12" t="n">
         <v>15</v>
       </c>
-      <c r="E12" t="inlineStr">
-        <is>
-          <t>De Graafschap</t>
-        </is>
-      </c>
-      <c r="F12" t="inlineStr">
-        <is>
-          <t>Dordrecht</t>
-        </is>
-      </c>
-      <c r="G12" t="n">
+      <c r="Q12" t="n">
+        <v>1.22</v>
+      </c>
+      <c r="R12" t="n">
+        <v>4.2</v>
+      </c>
+      <c r="S12" t="n">
+        <v>1.68</v>
+      </c>
+      <c r="T12" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="U12" t="n">
+        <v>1.57</v>
+      </c>
+      <c r="V12" t="n">
+        <v>2.35</v>
+      </c>
+      <c r="W12" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="X12" t="n">
+        <v>1.29</v>
+      </c>
+      <c r="Y12" t="n">
+        <v>1.55</v>
+      </c>
+      <c r="Z12" t="n">
+        <v>2.14</v>
+      </c>
+      <c r="AA12" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="AB12" t="n">
+        <v>1.21</v>
+      </c>
+      <c r="AC12" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="AD12" t="n">
+        <v>2.57</v>
+      </c>
+      <c r="AE12" t="n">
+        <v>1.85</v>
+      </c>
+      <c r="AF12" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="AG12" t="n">
         <v>2.15</v>
       </c>
-      <c r="H12" t="n">
-        <v>2.45</v>
-      </c>
-      <c r="I12" t="n">
-        <v>4</v>
-      </c>
-      <c r="J12" t="n">
-        <v>1.76</v>
-      </c>
-      <c r="K12" t="n">
-        <v>4.18</v>
-      </c>
-      <c r="L12" t="n">
-        <v>4.16</v>
-      </c>
-      <c r="M12" t="n">
-        <v>1.22</v>
-      </c>
-      <c r="N12" t="n">
-        <v>3.75</v>
-      </c>
-      <c r="O12" t="n">
-        <v>1.02</v>
-      </c>
-      <c r="P12" t="n">
-        <v>19</v>
-      </c>
-      <c r="Q12" t="n">
-        <v>1.14</v>
-      </c>
-      <c r="R12" t="n">
-        <v>5.75</v>
-      </c>
-      <c r="S12" t="n">
-        <v>1.42</v>
-      </c>
-      <c r="T12" t="n">
-        <v>2.85</v>
-      </c>
-      <c r="U12" t="n">
-        <v>1.42</v>
-      </c>
-      <c r="V12" t="n">
-        <v>2.63</v>
-      </c>
-      <c r="W12" t="n">
-        <v>1.22</v>
-      </c>
-      <c r="X12" t="n">
-        <v>1.18</v>
-      </c>
-      <c r="Y12" t="n">
-        <v>2.1</v>
-      </c>
-      <c r="Z12" t="n">
-        <v>2</v>
-      </c>
-      <c r="AA12" t="n">
-        <v>1.5</v>
-      </c>
-      <c r="AB12" t="n">
-        <v>1.62</v>
-      </c>
-      <c r="AC12" t="n">
+      <c r="AH12" t="n">
+        <v>1.23</v>
+      </c>
+      <c r="AI12" t="n">
+        <v>3.56</v>
+      </c>
+      <c r="AJ12" t="n">
+        <v>1.45</v>
+      </c>
+      <c r="AK12" t="n">
+        <v>2.55</v>
+      </c>
+      <c r="AL12" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="AM12" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="AN12" t="n">
+        <v>2.29</v>
+      </c>
+      <c r="AO12" t="n">
+        <v>1.55</v>
+      </c>
+      <c r="AP12" t="n">
+        <v>3.04</v>
+      </c>
+      <c r="AQ12" t="n">
         <v>1.31</v>
-      </c>
-      <c r="AD12" t="n">
-        <v>2.93</v>
-      </c>
-      <c r="AE12" t="n">
-        <v>1.46</v>
-      </c>
-      <c r="AF12" t="n">
-        <v>10</v>
-      </c>
-      <c r="AG12" t="n">
-        <v>3.24</v>
-      </c>
-      <c r="AH12" t="n">
-        <v>0</v>
-      </c>
-      <c r="AI12" t="n">
-        <v>0</v>
-      </c>
-      <c r="AJ12" t="n">
-        <v>1.33</v>
-      </c>
-      <c r="AK12" t="n">
-        <v>2.93</v>
-      </c>
-      <c r="AL12" t="n">
-        <v>1.59</v>
-      </c>
-      <c r="AM12" t="n">
-        <v>2.21</v>
-      </c>
-      <c r="AN12" t="n">
-        <v>2.01</v>
-      </c>
-      <c r="AO12" t="n">
-        <v>1.75</v>
-      </c>
-      <c r="AP12" t="n">
-        <v>2.58</v>
-      </c>
-      <c r="AQ12" t="n">
-        <v>1.44</v>
       </c>
     </row>
     <row r="13">
@@ -2198,134 +2198,134 @@
         </is>
       </c>
       <c r="D13" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>Utrecht II</t>
+          <t>De Graafschap</t>
         </is>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>Telstar</t>
+          <t>Dordrecht</t>
         </is>
       </c>
       <c r="G13" t="n">
-        <v>2.8</v>
+        <v>2.15</v>
       </c>
       <c r="H13" t="n">
-        <v>2.25</v>
+        <v>2.45</v>
       </c>
       <c r="I13" t="n">
-        <v>3.1</v>
+        <v>4</v>
       </c>
       <c r="J13" t="n">
-        <v>2.45</v>
+        <v>1.76</v>
       </c>
       <c r="K13" t="n">
-        <v>3.5</v>
+        <v>4.18</v>
       </c>
       <c r="L13" t="n">
-        <v>2.86</v>
+        <v>4.16</v>
       </c>
       <c r="M13" t="n">
-        <v>1.3</v>
+        <v>1.22</v>
       </c>
       <c r="N13" t="n">
-        <v>3.2</v>
+        <v>3.75</v>
       </c>
       <c r="O13" t="n">
-        <v>1.03</v>
+        <v>1.02</v>
       </c>
       <c r="P13" t="n">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="Q13" t="n">
+        <v>1.14</v>
+      </c>
+      <c r="R13" t="n">
+        <v>5.75</v>
+      </c>
+      <c r="S13" t="n">
+        <v>1.42</v>
+      </c>
+      <c r="T13" t="n">
+        <v>2.85</v>
+      </c>
+      <c r="U13" t="n">
+        <v>1.42</v>
+      </c>
+      <c r="V13" t="n">
+        <v>2.63</v>
+      </c>
+      <c r="W13" t="n">
         <v>1.22</v>
       </c>
-      <c r="R13" t="n">
-        <v>4.2</v>
-      </c>
-      <c r="S13" t="n">
-        <v>1.68</v>
-      </c>
-      <c r="T13" t="n">
+      <c r="X13" t="n">
+        <v>1.18</v>
+      </c>
+      <c r="Y13" t="n">
         <v>2.1</v>
       </c>
-      <c r="U13" t="n">
-        <v>1.57</v>
-      </c>
-      <c r="V13" t="n">
-        <v>2.35</v>
-      </c>
-      <c r="W13" t="n">
-        <v>1.4</v>
-      </c>
-      <c r="X13" t="n">
-        <v>1.29</v>
-      </c>
-      <c r="Y13" t="n">
-        <v>1.55</v>
-      </c>
       <c r="Z13" t="n">
-        <v>2.14</v>
+        <v>2</v>
       </c>
       <c r="AA13" t="n">
-        <v>0.5</v>
+        <v>1.5</v>
       </c>
       <c r="AB13" t="n">
-        <v>1.21</v>
+        <v>1.62</v>
       </c>
       <c r="AC13" t="n">
-        <v>1.36</v>
+        <v>1.31</v>
       </c>
       <c r="AD13" t="n">
-        <v>2.57</v>
+        <v>2.93</v>
       </c>
       <c r="AE13" t="n">
-        <v>0</v>
+        <v>1.46</v>
       </c>
       <c r="AF13" t="n">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="AG13" t="n">
-        <v>0</v>
+        <v>3.24</v>
       </c>
       <c r="AH13" t="n">
-        <v>0</v>
+        <v>1.17</v>
       </c>
       <c r="AI13" t="n">
-        <v>0</v>
+        <v>4.4</v>
       </c>
       <c r="AJ13" t="n">
-        <v>0</v>
+        <v>1.33</v>
       </c>
       <c r="AK13" t="n">
-        <v>0</v>
+        <v>2.93</v>
       </c>
       <c r="AL13" t="n">
-        <v>0</v>
+        <v>1.59</v>
       </c>
       <c r="AM13" t="n">
-        <v>0</v>
+        <v>2.21</v>
       </c>
       <c r="AN13" t="n">
-        <v>0</v>
+        <v>2.01</v>
       </c>
       <c r="AO13" t="n">
-        <v>0</v>
+        <v>1.75</v>
       </c>
       <c r="AP13" t="n">
-        <v>0</v>
+        <v>2.58</v>
       </c>
       <c r="AQ13" t="n">
-        <v>0</v>
+        <v>1.44</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>Greece Super League</t>
+          <t>Netherlands Eerste Divisie</t>
         </is>
       </c>
       <c r="B14" s="2" t="n">
@@ -2337,134 +2337,134 @@
         </is>
       </c>
       <c r="D14" t="n">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>AEK Athens</t>
+          <t>PSV II</t>
         </is>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>Aris</t>
+          <t>NAC Breda</t>
         </is>
       </c>
       <c r="G14" t="n">
-        <v>1.91</v>
+        <v>4</v>
       </c>
       <c r="H14" t="n">
         <v>2.4</v>
       </c>
       <c r="I14" t="n">
-        <v>7</v>
+        <v>2.38</v>
       </c>
       <c r="J14" t="n">
-        <v>1.36</v>
+        <v>4.13</v>
       </c>
       <c r="K14" t="n">
-        <v>4.2</v>
+        <v>4.05</v>
       </c>
       <c r="L14" t="n">
-        <v>7</v>
+        <v>1.79</v>
       </c>
       <c r="M14" t="n">
-        <v>1.33</v>
+        <v>1.29</v>
       </c>
       <c r="N14" t="n">
-        <v>3.25</v>
+        <v>3.5</v>
       </c>
       <c r="O14" t="n">
-        <v>1.02</v>
+        <v>0</v>
       </c>
       <c r="P14" t="n">
-        <v>15</v>
+        <v>19.5</v>
       </c>
       <c r="Q14" t="n">
-        <v>1.22</v>
+        <v>1.17</v>
       </c>
       <c r="R14" t="n">
-        <v>4.2</v>
+        <v>5.34</v>
       </c>
       <c r="S14" t="n">
-        <v>1.67</v>
+        <v>1.5</v>
       </c>
       <c r="T14" t="n">
-        <v>2</v>
+        <v>2.31</v>
       </c>
       <c r="U14" t="n">
-        <v>1.95</v>
+        <v>1.53</v>
       </c>
       <c r="V14" t="n">
-        <v>1.8</v>
+        <v>2.38</v>
       </c>
       <c r="W14" t="n">
-        <v>1.08</v>
+        <v>2.08</v>
       </c>
       <c r="X14" t="n">
-        <v>1.15</v>
+        <v>1.18</v>
       </c>
       <c r="Y14" t="n">
-        <v>2.95</v>
+        <v>1.16</v>
       </c>
       <c r="Z14" t="n">
-        <v>2.33</v>
+        <v>0.88</v>
       </c>
       <c r="AA14" t="n">
-        <v>0.8</v>
+        <v>1.38</v>
       </c>
       <c r="AB14" t="n">
-        <v>2.03</v>
+        <v>1.35</v>
       </c>
       <c r="AC14" t="n">
-        <v>1</v>
+        <v>1.42</v>
       </c>
       <c r="AD14" t="n">
-        <v>3.03</v>
+        <v>2.77</v>
       </c>
       <c r="AE14" t="n">
-        <v>1.15</v>
+        <v>0</v>
       </c>
       <c r="AF14" t="n">
-        <v>12</v>
+        <v>0</v>
       </c>
       <c r="AG14" t="n">
-        <v>7.12</v>
+        <v>0</v>
       </c>
       <c r="AH14" t="n">
-        <v>1.45</v>
+        <v>0</v>
       </c>
       <c r="AI14" t="n">
-        <v>2.48</v>
+        <v>0</v>
       </c>
       <c r="AJ14" t="n">
-        <v>1.82</v>
+        <v>0</v>
       </c>
       <c r="AK14" t="n">
-        <v>1.88</v>
+        <v>0</v>
       </c>
       <c r="AL14" t="n">
-        <v>2.34</v>
+        <v>1.74</v>
       </c>
       <c r="AM14" t="n">
-        <v>1.5</v>
+        <v>2.08</v>
       </c>
       <c r="AN14" t="n">
-        <v>3.2</v>
+        <v>2.14</v>
       </c>
       <c r="AO14" t="n">
-        <v>1.28</v>
+        <v>1.7</v>
       </c>
       <c r="AP14" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="AQ14" t="n">
-        <v>1.2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>Spain Segunda División</t>
+          <t>Greece Super League</t>
         </is>
       </c>
       <c r="B15" s="2" t="n">
@@ -2472,138 +2472,138 @@
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>16:30:00</t>
+          <t>16:00:00</t>
         </is>
       </c>
       <c r="D15" t="n">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>Villarreal II</t>
+          <t>AEK Athens</t>
         </is>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>SD Eibar</t>
+          <t>Aris</t>
         </is>
       </c>
       <c r="G15" t="n">
-        <v>4.38</v>
+        <v>1.91</v>
       </c>
       <c r="H15" t="n">
-        <v>2.28</v>
+        <v>2.4</v>
       </c>
       <c r="I15" t="n">
-        <v>2.68</v>
+        <v>7</v>
       </c>
       <c r="J15" t="n">
-        <v>3.6</v>
+        <v>1.3</v>
       </c>
       <c r="K15" t="n">
-        <v>3.3</v>
+        <v>5</v>
       </c>
       <c r="L15" t="n">
+        <v>9</v>
+      </c>
+      <c r="M15" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="N15" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="O15" t="n">
+        <v>1.02</v>
+      </c>
+      <c r="P15" t="n">
+        <v>15</v>
+      </c>
+      <c r="Q15" t="n">
+        <v>1.22</v>
+      </c>
+      <c r="R15" t="n">
+        <v>4.2</v>
+      </c>
+      <c r="S15" t="n">
+        <v>1.62</v>
+      </c>
+      <c r="T15" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="U15" t="n">
         <v>1.95</v>
       </c>
-      <c r="M15" t="n">
-        <v>1.4</v>
-      </c>
-      <c r="N15" t="n">
-        <v>3.07</v>
-      </c>
-      <c r="O15" t="n">
-        <v>1.04</v>
-      </c>
-      <c r="P15" t="n">
-        <v>8.5</v>
-      </c>
-      <c r="Q15" t="n">
-        <v>1.29</v>
-      </c>
-      <c r="R15" t="n">
-        <v>3.3</v>
-      </c>
-      <c r="S15" t="n">
-        <v>1.85</v>
-      </c>
-      <c r="T15" t="n">
+      <c r="V15" t="n">
         <v>1.8</v>
       </c>
-      <c r="U15" t="n">
-        <v>1.75</v>
-      </c>
-      <c r="V15" t="n">
-        <v>1.95</v>
-      </c>
       <c r="W15" t="n">
-        <v>1.78</v>
+        <v>1.08</v>
       </c>
       <c r="X15" t="n">
-        <v>1.3</v>
+        <v>1.15</v>
       </c>
       <c r="Y15" t="n">
-        <v>1.3</v>
+        <v>2.95</v>
       </c>
       <c r="Z15" t="n">
-        <v>1.38</v>
+        <v>2.33</v>
       </c>
       <c r="AA15" t="n">
-        <v>1.44</v>
+        <v>0.8</v>
       </c>
       <c r="AB15" t="n">
-        <v>1.64</v>
+        <v>2.03</v>
       </c>
       <c r="AC15" t="n">
-        <v>1.37</v>
+        <v>1</v>
       </c>
       <c r="AD15" t="n">
-        <v>3.01</v>
+        <v>3.03</v>
       </c>
       <c r="AE15" t="n">
-        <v>2.41</v>
+        <v>1.15</v>
       </c>
       <c r="AF15" t="n">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="AG15" t="n">
-        <v>1.77</v>
+        <v>7.12</v>
       </c>
       <c r="AH15" t="n">
-        <v>1.29</v>
+        <v>1.45</v>
       </c>
       <c r="AI15" t="n">
-        <v>3.14</v>
+        <v>2.48</v>
       </c>
       <c r="AJ15" t="n">
-        <v>1.56</v>
+        <v>1.82</v>
       </c>
       <c r="AK15" t="n">
-        <v>2.27</v>
+        <v>1.88</v>
       </c>
       <c r="AL15" t="n">
-        <v>1.97</v>
+        <v>2.34</v>
       </c>
       <c r="AM15" t="n">
-        <v>1.78</v>
+        <v>1.5</v>
       </c>
       <c r="AN15" t="n">
-        <v>2.58</v>
+        <v>3.2</v>
       </c>
       <c r="AO15" t="n">
-        <v>1.44</v>
+        <v>1.28</v>
       </c>
       <c r="AP15" t="n">
-        <v>3.48</v>
+        <v>4</v>
       </c>
       <c r="AQ15" t="n">
-        <v>1.24</v>
+        <v>1.2</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>Italy Serie A</t>
+          <t>Spain Segunda División</t>
         </is>
       </c>
       <c r="B16" s="2" t="n">
@@ -2611,138 +2611,138 @@
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>16:45:00</t>
+          <t>16:30:00</t>
         </is>
       </c>
       <c r="D16" t="n">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>Torino</t>
+          <t>Villarreal II</t>
         </is>
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>Atalanta</t>
+          <t>SD Eibar</t>
         </is>
       </c>
       <c r="G16" t="n">
-        <v>3.6</v>
+        <v>4.38</v>
       </c>
       <c r="H16" t="n">
-        <v>2.05</v>
+        <v>2.28</v>
       </c>
       <c r="I16" t="n">
-        <v>3.2</v>
+        <v>2.68</v>
       </c>
       <c r="J16" t="n">
-        <v>3.1</v>
+        <v>3.75</v>
       </c>
       <c r="K16" t="n">
-        <v>3.2</v>
+        <v>3.5</v>
       </c>
       <c r="L16" t="n">
-        <v>2.37</v>
+        <v>1.95</v>
       </c>
       <c r="M16" t="n">
-        <v>1.5</v>
+        <v>1.4</v>
       </c>
       <c r="N16" t="n">
-        <v>2.5</v>
+        <v>3.07</v>
       </c>
       <c r="O16" t="n">
-        <v>1.08</v>
+        <v>1.04</v>
       </c>
       <c r="P16" t="n">
         <v>8.5</v>
       </c>
       <c r="Q16" t="n">
-        <v>1.4</v>
+        <v>1.29</v>
       </c>
       <c r="R16" t="n">
-        <v>3</v>
+        <v>3.3</v>
       </c>
       <c r="S16" t="n">
-        <v>2.15</v>
+        <v>1.85</v>
       </c>
       <c r="T16" t="n">
-        <v>1.67</v>
+        <v>1.91</v>
       </c>
       <c r="U16" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="V16" t="n">
         <v>1.95</v>
       </c>
-      <c r="V16" t="n">
-        <v>1.8</v>
-      </c>
       <c r="W16" t="n">
-        <v>1.55</v>
+        <v>1.78</v>
       </c>
       <c r="X16" t="n">
         <v>1.3</v>
       </c>
       <c r="Y16" t="n">
-        <v>1.42</v>
+        <v>1.3</v>
       </c>
       <c r="Z16" t="n">
-        <v>1.5</v>
+        <v>1.38</v>
       </c>
       <c r="AA16" t="n">
-        <v>1.43</v>
+        <v>1.44</v>
       </c>
       <c r="AB16" t="n">
-        <v>1.34</v>
+        <v>1.64</v>
       </c>
       <c r="AC16" t="n">
-        <v>1.45</v>
+        <v>1.37</v>
       </c>
       <c r="AD16" t="n">
-        <v>2.79</v>
+        <v>3.01</v>
       </c>
       <c r="AE16" t="n">
-        <v>1.96</v>
+        <v>2.41</v>
       </c>
       <c r="AF16" t="n">
-        <v>8.4</v>
+        <v>8</v>
       </c>
       <c r="AG16" t="n">
-        <v>2.18</v>
+        <v>1.77</v>
       </c>
       <c r="AH16" t="n">
-        <v>1.39</v>
+        <v>1.29</v>
       </c>
       <c r="AI16" t="n">
-        <v>2.81</v>
+        <v>3.14</v>
       </c>
       <c r="AJ16" t="n">
-        <v>1.74</v>
+        <v>1.56</v>
       </c>
       <c r="AK16" t="n">
-        <v>2.05</v>
+        <v>2.27</v>
       </c>
       <c r="AL16" t="n">
-        <v>2.19</v>
+        <v>1.97</v>
       </c>
       <c r="AM16" t="n">
-        <v>1.65</v>
+        <v>1.78</v>
       </c>
       <c r="AN16" t="n">
-        <v>2.93</v>
+        <v>2.58</v>
       </c>
       <c r="AO16" t="n">
-        <v>1.33</v>
+        <v>1.44</v>
       </c>
       <c r="AP16" t="n">
-        <v>4.15</v>
+        <v>3.48</v>
       </c>
       <c r="AQ16" t="n">
-        <v>1.17</v>
+        <v>1.24</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>Spain La Liga</t>
+          <t>Italy Serie A</t>
         </is>
       </c>
       <c r="B17" s="2" t="n">
@@ -2750,138 +2750,138 @@
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>17:00:00</t>
+          <t>16:45:00</t>
         </is>
       </c>
       <c r="D17" t="n">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>Celta de Vigo</t>
+          <t>Torino</t>
         </is>
       </c>
       <c r="F17" t="inlineStr">
         <is>
-          <t>Cádiz</t>
+          <t>Atalanta</t>
         </is>
       </c>
       <c r="G17" t="n">
-        <v>2.2</v>
+        <v>3.6</v>
       </c>
       <c r="H17" t="n">
-        <v>2.2</v>
+        <v>2.05</v>
       </c>
       <c r="I17" t="n">
-        <v>6</v>
+        <v>3.2</v>
       </c>
       <c r="J17" t="n">
+        <v>2.94</v>
+      </c>
+      <c r="K17" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="L17" t="n">
+        <v>2.38</v>
+      </c>
+      <c r="M17" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="N17" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="O17" t="n">
+        <v>1.08</v>
+      </c>
+      <c r="P17" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="Q17" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="R17" t="n">
+        <v>3</v>
+      </c>
+      <c r="S17" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="T17" t="n">
         <v>1.7</v>
       </c>
-      <c r="K17" t="n">
-        <v>3.6</v>
-      </c>
-      <c r="L17" t="n">
-        <v>5</v>
-      </c>
-      <c r="M17" t="n">
-        <v>1.4</v>
-      </c>
-      <c r="N17" t="n">
-        <v>2.75</v>
-      </c>
-      <c r="O17" t="n">
-        <v>1.07</v>
-      </c>
-      <c r="P17" t="n">
-        <v>10.5</v>
-      </c>
-      <c r="Q17" t="n">
-        <v>1.27</v>
-      </c>
-      <c r="R17" t="n">
-        <v>3.7</v>
-      </c>
-      <c r="S17" t="n">
+      <c r="U17" t="n">
         <v>1.95</v>
       </c>
-      <c r="T17" t="n">
+      <c r="V17" t="n">
         <v>1.8</v>
       </c>
-      <c r="U17" t="n">
-        <v>2</v>
-      </c>
-      <c r="V17" t="n">
-        <v>1.75</v>
-      </c>
       <c r="W17" t="n">
-        <v>1.15</v>
+        <v>1.55</v>
       </c>
       <c r="X17" t="n">
-        <v>1.24</v>
+        <v>1.3</v>
       </c>
       <c r="Y17" t="n">
-        <v>2.35</v>
+        <v>1.42</v>
       </c>
       <c r="Z17" t="n">
-        <v>0.43</v>
+        <v>1.5</v>
       </c>
       <c r="AA17" t="n">
-        <v>0.29</v>
+        <v>1.43</v>
       </c>
       <c r="AB17" t="n">
-        <v>1.43</v>
+        <v>1.34</v>
       </c>
       <c r="AC17" t="n">
-        <v>0.92</v>
+        <v>1.45</v>
       </c>
       <c r="AD17" t="n">
-        <v>2.35</v>
+        <v>2.79</v>
       </c>
       <c r="AE17" t="n">
+        <v>1.96</v>
+      </c>
+      <c r="AF17" t="n">
+        <v>8.4</v>
+      </c>
+      <c r="AG17" t="n">
+        <v>2.18</v>
+      </c>
+      <c r="AH17" t="n">
+        <v>1.39</v>
+      </c>
+      <c r="AI17" t="n">
+        <v>2.81</v>
+      </c>
+      <c r="AJ17" t="n">
+        <v>1.74</v>
+      </c>
+      <c r="AK17" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="AL17" t="n">
+        <v>2.19</v>
+      </c>
+      <c r="AM17" t="n">
+        <v>1.65</v>
+      </c>
+      <c r="AN17" t="n">
+        <v>2.93</v>
+      </c>
+      <c r="AO17" t="n">
         <v>1.33</v>
       </c>
-      <c r="AF17" t="n">
-        <v>9.5</v>
-      </c>
-      <c r="AG17" t="n">
-        <v>4</v>
-      </c>
-      <c r="AH17" t="n">
-        <v>1.28</v>
-      </c>
-      <c r="AI17" t="n">
-        <v>3.2</v>
-      </c>
-      <c r="AJ17" t="n">
-        <v>1.56</v>
-      </c>
-      <c r="AK17" t="n">
-        <v>2.37</v>
-      </c>
-      <c r="AL17" t="n">
-        <v>1.94</v>
-      </c>
-      <c r="AM17" t="n">
-        <v>1.85</v>
-      </c>
-      <c r="AN17" t="n">
-        <v>2.47</v>
-      </c>
-      <c r="AO17" t="n">
-        <v>1.52</v>
-      </c>
       <c r="AP17" t="n">
-        <v>3.34</v>
+        <v>4.15</v>
       </c>
       <c r="AQ17" t="n">
-        <v>1.26</v>
+        <v>1.17</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>Uruguay Primera División</t>
+          <t>Spain La Liga</t>
         </is>
       </c>
       <c r="B18" s="2" t="n">
@@ -2893,134 +2893,134 @@
         </is>
       </c>
       <c r="D18" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>Cerro</t>
+          <t>Celta de Vigo</t>
         </is>
       </c>
       <c r="F18" t="inlineStr">
         <is>
-          <t>Plaza Colonia</t>
+          <t>Cádiz</t>
         </is>
       </c>
       <c r="G18" t="n">
-        <v>2.88</v>
+        <v>2.2</v>
       </c>
       <c r="H18" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="I18" t="n">
+        <v>6</v>
+      </c>
+      <c r="J18" t="n">
+        <v>1.77</v>
+      </c>
+      <c r="K18" t="n">
+        <v>3.67</v>
+      </c>
+      <c r="L18" t="n">
+        <v>4.34</v>
+      </c>
+      <c r="M18" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="N18" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="O18" t="n">
+        <v>1.07</v>
+      </c>
+      <c r="P18" t="n">
+        <v>10.5</v>
+      </c>
+      <c r="Q18" t="n">
+        <v>1.27</v>
+      </c>
+      <c r="R18" t="n">
+        <v>3.7</v>
+      </c>
+      <c r="S18" t="n">
+        <v>1.97</v>
+      </c>
+      <c r="T18" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="U18" t="n">
         <v>2</v>
       </c>
-      <c r="I18" t="n">
+      <c r="V18" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="W18" t="n">
+        <v>1.15</v>
+      </c>
+      <c r="X18" t="n">
+        <v>1.24</v>
+      </c>
+      <c r="Y18" t="n">
+        <v>2.35</v>
+      </c>
+      <c r="Z18" t="n">
+        <v>0.43</v>
+      </c>
+      <c r="AA18" t="n">
+        <v>0.29</v>
+      </c>
+      <c r="AB18" t="n">
+        <v>1.43</v>
+      </c>
+      <c r="AC18" t="n">
+        <v>0.92</v>
+      </c>
+      <c r="AD18" t="n">
+        <v>2.35</v>
+      </c>
+      <c r="AE18" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="AF18" t="n">
+        <v>9.5</v>
+      </c>
+      <c r="AG18" t="n">
         <v>4</v>
       </c>
-      <c r="J18" t="n">
-        <v>2.1</v>
-      </c>
-      <c r="K18" t="n">
-        <v>3.1</v>
-      </c>
-      <c r="L18" t="n">
-        <v>3.3</v>
-      </c>
-      <c r="M18" t="n">
-        <v>1.5</v>
-      </c>
-      <c r="N18" t="n">
-        <v>2.5</v>
-      </c>
-      <c r="O18" t="n">
-        <v>1.08</v>
-      </c>
-      <c r="P18" t="n">
-        <v>6.5</v>
-      </c>
-      <c r="Q18" t="n">
-        <v>1.35</v>
-      </c>
-      <c r="R18" t="n">
-        <v>2.9</v>
-      </c>
-      <c r="S18" t="n">
-        <v>2.21</v>
-      </c>
-      <c r="T18" t="n">
-        <v>1.59</v>
-      </c>
-      <c r="U18" t="n">
-        <v>1.91</v>
-      </c>
-      <c r="V18" t="n">
-        <v>1.8</v>
-      </c>
-      <c r="W18" t="n">
-        <v>1.27</v>
-      </c>
-      <c r="X18" t="n">
-        <v>1.35</v>
-      </c>
-      <c r="Y18" t="n">
-        <v>1.65</v>
-      </c>
-      <c r="Z18" t="n">
-        <v>1.17</v>
-      </c>
-      <c r="AA18" t="n">
-        <v>0.83</v>
-      </c>
-      <c r="AB18" t="n">
-        <v>1.32</v>
-      </c>
-      <c r="AC18" t="n">
-        <v>1.12</v>
-      </c>
-      <c r="AD18" t="n">
-        <v>2.44</v>
-      </c>
-      <c r="AE18" t="n">
-        <v>1.6</v>
-      </c>
-      <c r="AF18" t="n">
-        <v>8.5</v>
-      </c>
-      <c r="AG18" t="n">
-        <v>2.6</v>
-      </c>
       <c r="AH18" t="n">
-        <v>1.23</v>
+        <v>1.28</v>
       </c>
       <c r="AI18" t="n">
-        <v>3.56</v>
+        <v>3.2</v>
       </c>
       <c r="AJ18" t="n">
-        <v>1.43</v>
+        <v>1.56</v>
       </c>
       <c r="AK18" t="n">
-        <v>2.54</v>
+        <v>2.37</v>
       </c>
       <c r="AL18" t="n">
-        <v>1.78</v>
+        <v>1.94</v>
       </c>
       <c r="AM18" t="n">
-        <v>1.93</v>
+        <v>1.85</v>
       </c>
       <c r="AN18" t="n">
-        <v>2.25</v>
+        <v>2.47</v>
       </c>
       <c r="AO18" t="n">
-        <v>1.54</v>
+        <v>1.52</v>
       </c>
       <c r="AP18" t="n">
-        <v>3.04</v>
+        <v>3.34</v>
       </c>
       <c r="AQ18" t="n">
-        <v>1.31</v>
+        <v>1.26</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>Portugal Liga NOS</t>
+          <t>Uruguay Primera División</t>
         </is>
       </c>
       <c r="B19" s="2" t="n">
@@ -3028,138 +3028,138 @@
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>17:15:00</t>
+          <t>17:00:00</t>
         </is>
       </c>
       <c r="D19" t="n">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>Sporting CP</t>
+          <t>Cerro</t>
         </is>
       </c>
       <c r="F19" t="inlineStr">
         <is>
-          <t>Gil Vicente</t>
+          <t>Plaza Colonia</t>
         </is>
       </c>
       <c r="G19" t="n">
-        <v>0</v>
+        <v>2.88</v>
       </c>
       <c r="H19" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I19" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="J19" t="n">
-        <v>1.16</v>
+        <v>1.73</v>
       </c>
       <c r="K19" t="n">
-        <v>7.9</v>
+        <v>3.4</v>
       </c>
       <c r="L19" t="n">
-        <v>11.58</v>
+        <v>4.75</v>
       </c>
       <c r="M19" t="n">
-        <v>0</v>
+        <v>1.5</v>
       </c>
       <c r="N19" t="n">
-        <v>0</v>
+        <v>2.5</v>
       </c>
       <c r="O19" t="n">
-        <v>0</v>
+        <v>1.08</v>
       </c>
       <c r="P19" t="n">
-        <v>0</v>
+        <v>6.5</v>
       </c>
       <c r="Q19" t="n">
-        <v>0</v>
+        <v>1.35</v>
       </c>
       <c r="R19" t="n">
-        <v>0</v>
+        <v>2.9</v>
       </c>
       <c r="S19" t="n">
-        <v>1.38</v>
+        <v>2.2</v>
       </c>
       <c r="T19" t="n">
-        <v>2.81</v>
+        <v>1.62</v>
       </c>
       <c r="U19" t="n">
-        <v>0</v>
+        <v>1.91</v>
       </c>
       <c r="V19" t="n">
-        <v>0</v>
+        <v>1.8</v>
       </c>
       <c r="W19" t="n">
-        <v>0</v>
+        <v>1.27</v>
       </c>
       <c r="X19" t="n">
-        <v>0</v>
+        <v>1.35</v>
       </c>
       <c r="Y19" t="n">
-        <v>0</v>
+        <v>1.65</v>
       </c>
       <c r="Z19" t="n">
-        <v>3</v>
+        <v>1.17</v>
       </c>
       <c r="AA19" t="n">
-        <v>0</v>
+        <v>0.83</v>
       </c>
       <c r="AB19" t="n">
-        <v>1.71</v>
+        <v>1.32</v>
       </c>
       <c r="AC19" t="n">
-        <v>1.02</v>
+        <v>1.12</v>
       </c>
       <c r="AD19" t="n">
-        <v>2.73</v>
+        <v>2.44</v>
       </c>
       <c r="AE19" t="n">
-        <v>0</v>
+        <v>1.6</v>
       </c>
       <c r="AF19" t="n">
-        <v>0</v>
+        <v>8.5</v>
       </c>
       <c r="AG19" t="n">
-        <v>0</v>
+        <v>2.6</v>
       </c>
       <c r="AH19" t="n">
-        <v>0</v>
+        <v>1.23</v>
       </c>
       <c r="AI19" t="n">
-        <v>0</v>
+        <v>3.56</v>
       </c>
       <c r="AJ19" t="n">
-        <v>0</v>
+        <v>1.43</v>
       </c>
       <c r="AK19" t="n">
-        <v>0</v>
+        <v>2.54</v>
       </c>
       <c r="AL19" t="n">
-        <v>0</v>
+        <v>1.78</v>
       </c>
       <c r="AM19" t="n">
-        <v>0</v>
+        <v>1.93</v>
       </c>
       <c r="AN19" t="n">
-        <v>0</v>
+        <v>2.25</v>
       </c>
       <c r="AO19" t="n">
-        <v>0</v>
+        <v>1.54</v>
       </c>
       <c r="AP19" t="n">
-        <v>0</v>
+        <v>3.04</v>
       </c>
       <c r="AQ19" t="n">
-        <v>0</v>
+        <v>1.31</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>Uruguay Primera División</t>
+          <t>Portugal Liga NOS</t>
         </is>
       </c>
       <c r="B20" s="2" t="n">
@@ -3167,131 +3167,270 @@
       </c>
       <c r="C20" t="inlineStr">
         <is>
+          <t>17:15:00</t>
+        </is>
+      </c>
+      <c r="D20" t="n">
+        <v>12</v>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>Sporting CP</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>Gil Vicente</t>
+        </is>
+      </c>
+      <c r="G20" t="n">
+        <v>0</v>
+      </c>
+      <c r="H20" t="n">
+        <v>0</v>
+      </c>
+      <c r="I20" t="n">
+        <v>0</v>
+      </c>
+      <c r="J20" t="n">
+        <v>1.22</v>
+      </c>
+      <c r="K20" t="n">
+        <v>6.86</v>
+      </c>
+      <c r="L20" t="n">
+        <v>10.39</v>
+      </c>
+      <c r="M20" t="n">
+        <v>0</v>
+      </c>
+      <c r="N20" t="n">
+        <v>0</v>
+      </c>
+      <c r="O20" t="n">
+        <v>0</v>
+      </c>
+      <c r="P20" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q20" t="n">
+        <v>0</v>
+      </c>
+      <c r="R20" t="n">
+        <v>0</v>
+      </c>
+      <c r="S20" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="T20" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="U20" t="n">
+        <v>0</v>
+      </c>
+      <c r="V20" t="n">
+        <v>0</v>
+      </c>
+      <c r="W20" t="n">
+        <v>0</v>
+      </c>
+      <c r="X20" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y20" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z20" t="n">
+        <v>3</v>
+      </c>
+      <c r="AA20" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB20" t="n">
+        <v>1.71</v>
+      </c>
+      <c r="AC20" t="n">
+        <v>1.02</v>
+      </c>
+      <c r="AD20" t="n">
+        <v>2.73</v>
+      </c>
+      <c r="AE20" t="n">
+        <v>0</v>
+      </c>
+      <c r="AF20" t="n">
+        <v>0</v>
+      </c>
+      <c r="AG20" t="n">
+        <v>0</v>
+      </c>
+      <c r="AH20" t="n">
+        <v>0</v>
+      </c>
+      <c r="AI20" t="n">
+        <v>0</v>
+      </c>
+      <c r="AJ20" t="n">
+        <v>0</v>
+      </c>
+      <c r="AK20" t="n">
+        <v>0</v>
+      </c>
+      <c r="AL20" t="n">
+        <v>0</v>
+      </c>
+      <c r="AM20" t="n">
+        <v>0</v>
+      </c>
+      <c r="AN20" t="n">
+        <v>0</v>
+      </c>
+      <c r="AO20" t="n">
+        <v>0</v>
+      </c>
+      <c r="AP20" t="n">
+        <v>0</v>
+      </c>
+      <c r="AQ20" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="inlineStr">
+        <is>
+          <t>Uruguay Primera División</t>
+        </is>
+      </c>
+      <c r="B21" s="2" t="n">
+        <v>45264</v>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
           <t>20:30:00</t>
         </is>
       </c>
-      <c r="D20" t="n">
+      <c r="D21" t="n">
         <v>14</v>
       </c>
-      <c r="E20" t="inlineStr">
+      <c r="E21" t="inlineStr">
         <is>
           <t>Nacional</t>
         </is>
       </c>
-      <c r="F20" t="inlineStr">
+      <c r="F21" t="inlineStr">
         <is>
           <t>Defensor Sporting</t>
         </is>
       </c>
-      <c r="G20" t="n">
+      <c r="G21" t="n">
         <v>2.6</v>
       </c>
-      <c r="H20" t="n">
+      <c r="H21" t="n">
         <v>2.1</v>
       </c>
-      <c r="I20" t="n">
+      <c r="I21" t="n">
         <v>4.1</v>
       </c>
-      <c r="J20" t="n">
+      <c r="J21" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="K21" t="n">
+        <v>3.3</v>
+      </c>
+      <c r="L21" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="M21" t="n">
+        <v>1.41</v>
+      </c>
+      <c r="N21" t="n">
+        <v>2.78</v>
+      </c>
+      <c r="O21" t="n">
+        <v>1.06</v>
+      </c>
+      <c r="P21" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="Q21" t="n">
+        <v>1.32</v>
+      </c>
+      <c r="R21" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="S21" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="T21" t="n">
         <v>1.78</v>
       </c>
-      <c r="K20" t="n">
-        <v>3.5</v>
-      </c>
-      <c r="L20" t="n">
-        <v>4</v>
-      </c>
-      <c r="M20" t="n">
-        <v>1.41</v>
-      </c>
-      <c r="N20" t="n">
-        <v>2.78</v>
-      </c>
-      <c r="O20" t="n">
-        <v>1.06</v>
-      </c>
-      <c r="P20" t="n">
+      <c r="U21" t="n">
+        <v>1.79</v>
+      </c>
+      <c r="V21" t="n">
+        <v>1.98</v>
+      </c>
+      <c r="W21" t="n">
+        <v>1.27</v>
+      </c>
+      <c r="X21" t="n">
+        <v>1.28</v>
+      </c>
+      <c r="Y21" t="n">
+        <v>1.71</v>
+      </c>
+      <c r="Z21" t="n">
+        <v>2.12</v>
+      </c>
+      <c r="AA21" t="n">
+        <v>1.39</v>
+      </c>
+      <c r="AB21" t="n">
+        <v>1.76</v>
+      </c>
+      <c r="AC21" t="n">
+        <v>1.53</v>
+      </c>
+      <c r="AD21" t="n">
+        <v>3.29</v>
+      </c>
+      <c r="AE21" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="AF21" t="n">
         <v>8.5</v>
       </c>
-      <c r="Q20" t="n">
-        <v>1.32</v>
-      </c>
-      <c r="R20" t="n">
-        <v>3.1</v>
-      </c>
-      <c r="S20" t="n">
-        <v>1.91</v>
-      </c>
-      <c r="T20" t="n">
-        <v>1.8</v>
-      </c>
-      <c r="U20" t="n">
-        <v>1.79</v>
-      </c>
-      <c r="V20" t="n">
-        <v>1.98</v>
-      </c>
-      <c r="W20" t="n">
-        <v>1.27</v>
-      </c>
-      <c r="X20" t="n">
-        <v>1.28</v>
-      </c>
-      <c r="Y20" t="n">
-        <v>1.71</v>
-      </c>
-      <c r="Z20" t="n">
-        <v>2.12</v>
-      </c>
-      <c r="AA20" t="n">
-        <v>1.39</v>
-      </c>
-      <c r="AB20" t="n">
-        <v>1.76</v>
-      </c>
-      <c r="AC20" t="n">
+      <c r="AG21" t="n">
+        <v>2.3</v>
+      </c>
+      <c r="AH21" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="AI21" t="n">
+        <v>3.42</v>
+      </c>
+      <c r="AJ21" t="n">
         <v>1.53</v>
       </c>
-      <c r="AD20" t="n">
-        <v>3.29</v>
-      </c>
-      <c r="AE20" t="n">
-        <v>1.75</v>
-      </c>
-      <c r="AF20" t="n">
-        <v>8.5</v>
-      </c>
-      <c r="AG20" t="n">
-        <v>2.3</v>
-      </c>
-      <c r="AH20" t="n">
-        <v>1.25</v>
-      </c>
-      <c r="AI20" t="n">
-        <v>3.42</v>
-      </c>
-      <c r="AJ20" t="n">
-        <v>1.53</v>
-      </c>
-      <c r="AK20" t="n">
+      <c r="AK21" t="n">
         <v>2.47</v>
       </c>
-      <c r="AL20" t="n">
+      <c r="AL21" t="n">
         <v>1.86</v>
       </c>
-      <c r="AM20" t="n">
+      <c r="AM21" t="n">
         <v>1.93</v>
       </c>
-      <c r="AN20" t="n">
+      <c r="AN21" t="n">
         <v>2.34</v>
       </c>
-      <c r="AO20" t="n">
+      <c r="AO21" t="n">
         <v>1.59</v>
       </c>
-      <c r="AP20" t="n">
+      <c r="AP21" t="n">
         <v>3.08</v>
       </c>
-      <c r="AQ20" t="n">
+      <c r="AQ21" t="n">
         <v>1.3</v>
       </c>
     </row>
